--- a/products/冲调饮品/茶叶/威士顿魔法冬天浓味优质红茶.xlsx
+++ b/products/冲调饮品/茶叶/威士顿魔法冬天浓味优质红茶.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>品名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50克</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>纯锡兰茶和红茶，玫瑰花瓣。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,12 +211,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>110克</t>
+  </si>
+  <si>
+    <t>110克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -612,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -637,7 +632,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>4792156008011</v>
+        <v>4792156010434</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -646,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -655,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -766,7 +761,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -865,13 +860,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -880,19 +875,19 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -904,7 +899,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -913,10 +908,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>95</v>
@@ -926,10 +921,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>75</v>
@@ -939,10 +934,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>73</v>
@@ -952,10 +947,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>70</v>
